--- a/Jogos_do_Dia_FlashScore/2023-03-29_Jogos_do_Dia_FlashScore.xlsx
+++ b/Jogos_do_Dia_FlashScore/2023-03-29_Jogos_do_Dia_FlashScore.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="254">
   <si>
     <t>Date</t>
   </si>
@@ -514,6 +514,9 @@
     <t>07:30</t>
   </si>
   <si>
+    <t>09:00</t>
+  </si>
+  <si>
     <t>10:00</t>
   </si>
   <si>
@@ -532,6 +535,12 @@
     <t>Bandirmaspor</t>
   </si>
   <si>
+    <t>Genclerbirligi</t>
+  </si>
+  <si>
+    <t>Goztepe</t>
+  </si>
+  <si>
     <t>Rizespor</t>
   </si>
   <si>
@@ -542,6 +551,12 @@
   </si>
   <si>
     <t>Bodrumspor</t>
+  </si>
+  <si>
+    <t>Adanaspor AS</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor</t>
   </si>
   <si>
     <t>Manisa FK</t>
@@ -1118,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FG5"/>
+  <dimension ref="A1:FG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1623,16 +1638,16 @@
         <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G2">
         <v>2.75</v>
@@ -1659,10 +1674,10 @@
         <v>2.38</v>
       </c>
       <c r="O2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>2.3</v>
@@ -1674,7 +1689,7 @@
         <v>2.3</v>
       </c>
       <c r="T2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="U2">
         <v>3.5</v>
@@ -1695,10 +1710,10 @@
         <v>1.06</v>
       </c>
       <c r="AA2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AB2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AC2">
         <v>11</v>
@@ -1707,10 +1722,10 @@
         <v>1.05</v>
       </c>
       <c r="AE2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AF2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AG2">
         <v>1.95</v>
@@ -1767,10 +1782,10 @@
         <v>7</v>
       </c>
       <c r="AY2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AZ2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="BA2">
         <v>1.1</v>
@@ -1779,10 +1794,10 @@
         <v>5.4</v>
       </c>
       <c r="BC2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BD2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="BE2">
         <v>1.44</v>
@@ -1791,10 +1806,10 @@
         <v>2.63</v>
       </c>
       <c r="BG2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="BH2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="BI2">
         <v>1.85</v>
@@ -1815,10 +1830,10 @@
         <v>1.53</v>
       </c>
       <c r="BO2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="BP2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="BQ2">
         <v>3.8</v>
@@ -1827,10 +1842,10 @@
         <v>1.23</v>
       </c>
       <c r="BS2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="BT2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="BU2">
         <v>4.5</v>
@@ -1839,10 +1854,10 @@
         <v>1.18</v>
       </c>
       <c r="BW2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="BX2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="BY2">
         <v>8.300000000000001</v>
@@ -1851,10 +1866,10 @@
         <v>1.03</v>
       </c>
       <c r="CA2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="CB2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="CC2">
         <v>11</v>
@@ -1863,10 +1878,10 @@
         <v>1.05</v>
       </c>
       <c r="CE2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="CF2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="CG2">
         <v>14</v>
@@ -1887,10 +1902,10 @@
         <v>1.01</v>
       </c>
       <c r="CM2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="CN2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="CS2">
         <v>51</v>
@@ -2048,16 +2063,16 @@
         <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G3">
         <v>2.1</v>
@@ -2084,10 +2099,10 @@
         <v>2.75</v>
       </c>
       <c r="O3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>1.95</v>
@@ -2096,10 +2111,10 @@
         <v>1.85</v>
       </c>
       <c r="S3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="T3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="U3">
         <v>3</v>
@@ -2108,10 +2123,10 @@
         <v>1.36</v>
       </c>
       <c r="W3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="X3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Y3">
         <v>5.5</v>
@@ -2120,10 +2135,10 @@
         <v>1.11</v>
       </c>
       <c r="AA3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AB3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AC3">
         <v>8</v>
@@ -2132,10 +2147,10 @@
         <v>1.08</v>
       </c>
       <c r="AE3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AF3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AG3">
         <v>1.53</v>
@@ -2192,10 +2207,10 @@
         <v>10</v>
       </c>
       <c r="AY3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AZ3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BA3">
         <v>1.04</v>
@@ -2204,10 +2219,10 @@
         <v>7.4</v>
       </c>
       <c r="BC3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="BD3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="BE3">
         <v>1.3</v>
@@ -2216,10 +2231,10 @@
         <v>3.4</v>
       </c>
       <c r="BG3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="BH3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="BI3">
         <v>1.49</v>
@@ -2228,10 +2243,10 @@
         <v>2.47</v>
       </c>
       <c r="BK3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="BL3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="BM3">
         <v>2.02</v>
@@ -2240,10 +2255,10 @@
         <v>1.83</v>
       </c>
       <c r="BO3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="BP3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="BQ3">
         <v>2.76</v>
@@ -2252,10 +2267,10 @@
         <v>1.4</v>
       </c>
       <c r="BS3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="BT3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BU3">
         <v>3.5</v>
@@ -2264,10 +2279,10 @@
         <v>1.29</v>
       </c>
       <c r="BW3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="BX3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="BY3">
         <v>5.7</v>
@@ -2276,10 +2291,10 @@
         <v>1.09</v>
       </c>
       <c r="CA3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="CB3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="CC3">
         <v>7</v>
@@ -2288,10 +2303,10 @@
         <v>1.1</v>
       </c>
       <c r="CE3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="CF3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="CG3">
         <v>11</v>
@@ -2300,10 +2315,10 @@
         <v>1.03</v>
       </c>
       <c r="CI3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="CJ3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="CK3">
         <v>15</v>
@@ -2312,10 +2327,10 @@
         <v>1.03</v>
       </c>
       <c r="CM3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="CN3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="CS3">
         <v>29</v>
@@ -2324,10 +2339,10 @@
         <v>1.01</v>
       </c>
       <c r="CU3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="CV3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="DI3">
         <v>1.18</v>
@@ -2479,16 +2494,16 @@
         <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G4">
         <v>2.88</v>
@@ -2527,10 +2542,10 @@
         <v>1.95</v>
       </c>
       <c r="S4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="T4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="U4">
         <v>2.75</v>
@@ -2551,10 +2566,10 @@
         <v>1.11</v>
       </c>
       <c r="AA4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AB4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AC4">
         <v>8</v>
@@ -2623,10 +2638,10 @@
         <v>11</v>
       </c>
       <c r="AY4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AZ4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="BA4">
         <v>1.04</v>
@@ -2635,10 +2650,10 @@
         <v>7.9</v>
       </c>
       <c r="BC4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="BD4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="BE4">
         <v>1.29</v>
@@ -2659,10 +2674,10 @@
         <v>2.57</v>
       </c>
       <c r="BK4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="BL4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="BM4">
         <v>1.9</v>
@@ -2671,10 +2686,10 @@
         <v>1.9</v>
       </c>
       <c r="BO4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="BP4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="BQ4">
         <v>2.57</v>
@@ -2683,10 +2698,10 @@
         <v>1.44</v>
       </c>
       <c r="BS4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="BT4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="BU4">
         <v>3.25</v>
@@ -2695,10 +2710,10 @@
         <v>1.33</v>
       </c>
       <c r="BW4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="BX4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="BY4">
         <v>5.3</v>
@@ -2707,10 +2722,10 @@
         <v>1.1</v>
       </c>
       <c r="CA4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="CB4" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="CC4">
         <v>6.5</v>
@@ -2731,7 +2746,7 @@
         <v>1.02</v>
       </c>
       <c r="CI4" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="CJ4">
         <v>1.02</v>
@@ -2743,10 +2758,10 @@
         <v>1.04</v>
       </c>
       <c r="CM4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="CN4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="CS4">
         <v>26</v>
@@ -2755,7 +2770,7 @@
         <v>1.01</v>
       </c>
       <c r="CU4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="CV4">
         <v>1.01</v>
@@ -2910,432 +2925,472 @@
         <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:163">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:163">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7">
         <v>2.5</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>2.3</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>2.5</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <v>2.3</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>4</v>
       </c>
-      <c r="M5">
+      <c r="M7">
         <v>1.33</v>
       </c>
-      <c r="N5">
+      <c r="N7">
         <v>3.25</v>
       </c>
-      <c r="O5">
+      <c r="O7">
         <v>1.33</v>
       </c>
-      <c r="P5">
+      <c r="P7">
         <v>3.25</v>
       </c>
-      <c r="Q5">
+      <c r="Q7">
         <v>1.75</v>
       </c>
-      <c r="R5">
+      <c r="R7">
         <v>2.05</v>
       </c>
-      <c r="S5" t="s">
-        <v>183</v>
-      </c>
-      <c r="T5" t="s">
-        <v>181</v>
-      </c>
-      <c r="U5">
+      <c r="S7" t="s">
+        <v>188</v>
+      </c>
+      <c r="T7" t="s">
+        <v>186</v>
+      </c>
+      <c r="U7">
         <v>2.5</v>
       </c>
-      <c r="V5">
+      <c r="V7">
         <v>1.5</v>
       </c>
-      <c r="W5" t="s">
-        <v>186</v>
-      </c>
-      <c r="X5" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y5">
+      <c r="W7" t="s">
+        <v>191</v>
+      </c>
+      <c r="X7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y7">
         <v>5.05</v>
       </c>
-      <c r="Z5">
+      <c r="Z7">
         <v>1.15</v>
       </c>
-      <c r="AA5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC5">
+      <c r="AA7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC7">
         <v>6.5</v>
       </c>
-      <c r="AD5">
+      <c r="AD7">
         <v>1.11</v>
       </c>
-      <c r="AE5">
+      <c r="AE7">
         <v>6.5</v>
       </c>
-      <c r="AF5">
+      <c r="AF7">
         <v>1.11</v>
       </c>
-      <c r="AG5">
+      <c r="AG7">
         <v>1.91</v>
       </c>
-      <c r="AH5">
+      <c r="AH7">
         <v>3.5</v>
       </c>
-      <c r="AI5">
+      <c r="AI7">
         <v>3.6</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ7">
         <v>1.91</v>
       </c>
-      <c r="AK5">
+      <c r="AK7">
         <v>3.5</v>
       </c>
-      <c r="AL5">
+      <c r="AL7">
         <v>3.6</v>
       </c>
-      <c r="AM5">
+      <c r="AM7">
         <v>1.29</v>
       </c>
-      <c r="AN5">
+      <c r="AN7">
         <v>1.29</v>
       </c>
-      <c r="AO5">
+      <c r="AO7">
         <v>1.83</v>
       </c>
-      <c r="AP5">
+      <c r="AP7">
         <v>1.29</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ7">
         <v>1.29</v>
       </c>
-      <c r="AR5">
+      <c r="AR7">
         <v>1.83</v>
       </c>
-      <c r="AS5">
+      <c r="AS7">
         <v>1.62</v>
       </c>
-      <c r="AT5">
+      <c r="AT7">
         <v>2.2</v>
       </c>
-      <c r="AU5">
+      <c r="AU7">
         <v>1.67</v>
       </c>
-      <c r="AV5">
+      <c r="AV7">
         <v>2.1</v>
       </c>
-      <c r="AW5">
+      <c r="AW7">
         <v>1.04</v>
       </c>
-      <c r="AX5">
+      <c r="AX7">
         <v>13</v>
       </c>
-      <c r="AY5">
+      <c r="AY7">
         <v>1.04</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA5">
+      <c r="AZ7" t="s">
+        <v>206</v>
+      </c>
+      <c r="BA7">
         <v>1.02</v>
       </c>
-      <c r="BB5">
+      <c r="BB7">
         <v>9.199999999999999</v>
       </c>
-      <c r="BC5" t="s">
-        <v>204</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>208</v>
-      </c>
-      <c r="BE5">
+      <c r="BC7" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE7">
         <v>1.2</v>
       </c>
-      <c r="BF5">
+      <c r="BF7">
         <v>4.33</v>
       </c>
-      <c r="BG5" t="s">
-        <v>210</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>212</v>
-      </c>
-      <c r="BI5">
+      <c r="BG7" t="s">
+        <v>215</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>217</v>
+      </c>
+      <c r="BI7">
         <v>1.34</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ7">
         <v>2.97</v>
       </c>
-      <c r="BK5" t="s">
-        <v>215</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>217</v>
-      </c>
-      <c r="BM5">
+      <c r="BK7" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BM7">
         <v>1.7</v>
       </c>
-      <c r="BN5">
+      <c r="BN7">
         <v>2.1</v>
       </c>
-      <c r="BO5" t="s">
-        <v>221</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>224</v>
-      </c>
-      <c r="BQ5">
+      <c r="BO7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>229</v>
+      </c>
+      <c r="BQ7">
         <v>2.24</v>
       </c>
-      <c r="BR5">
+      <c r="BR7">
         <v>1.57</v>
       </c>
-      <c r="BS5" t="s">
-        <v>228</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BU5">
+      <c r="BS7" t="s">
+        <v>233</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>236</v>
+      </c>
+      <c r="BU7">
         <v>2.63</v>
       </c>
-      <c r="BV5">
+      <c r="BV7">
         <v>1.44</v>
       </c>
-      <c r="BW5" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>209</v>
-      </c>
-      <c r="BY5">
+      <c r="BW7" t="s">
+        <v>216</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>214</v>
+      </c>
+      <c r="BY7">
         <v>4.4</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ7">
         <v>1.16</v>
       </c>
-      <c r="CA5" t="s">
-        <v>236</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>237</v>
-      </c>
-      <c r="CC5">
+      <c r="CA7" t="s">
+        <v>241</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>242</v>
+      </c>
+      <c r="CC7">
         <v>5</v>
       </c>
-      <c r="CD5">
+      <c r="CD7">
         <v>1.17</v>
       </c>
-      <c r="CE5" t="s">
-        <v>238</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>195</v>
-      </c>
-      <c r="CG5">
+      <c r="CE7" t="s">
+        <v>243</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG7">
         <v>8.800000000000001</v>
       </c>
-      <c r="CH5">
+      <c r="CH7">
         <v>1.02</v>
       </c>
-      <c r="CI5" t="s">
-        <v>197</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>241</v>
-      </c>
-      <c r="CK5">
+      <c r="CI7" t="s">
+        <v>202</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>246</v>
+      </c>
+      <c r="CK7">
         <v>10</v>
       </c>
-      <c r="CL5">
+      <c r="CL7">
         <v>1.06</v>
       </c>
-      <c r="CM5" t="s">
-        <v>244</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>240</v>
-      </c>
-      <c r="CS5">
+      <c r="CM7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>245</v>
+      </c>
+      <c r="CS7">
         <v>21</v>
       </c>
-      <c r="CT5">
+      <c r="CT7">
         <v>1.02</v>
       </c>
-      <c r="CU5" t="s">
-        <v>247</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>248</v>
-      </c>
-      <c r="DA5">
+      <c r="CU7" t="s">
+        <v>252</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>253</v>
+      </c>
+      <c r="DA7">
         <v>41</v>
       </c>
-      <c r="DB5">
+      <c r="DB7">
         <v>41</v>
       </c>
-      <c r="DC5" t="s">
-        <v>245</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>245</v>
-      </c>
-      <c r="DI5">
+      <c r="DC7" t="s">
+        <v>250</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>250</v>
+      </c>
+      <c r="DI7">
         <v>1.43</v>
       </c>
-      <c r="DJ5">
+      <c r="DJ7">
         <v>2.75</v>
       </c>
-      <c r="DK5">
+      <c r="DK7">
         <v>1.65</v>
       </c>
-      <c r="DL5">
+      <c r="DL7">
         <v>2.2</v>
       </c>
-      <c r="DM5">
+      <c r="DM7">
         <v>1.32</v>
       </c>
-      <c r="DN5">
+      <c r="DN7">
         <v>3.3</v>
       </c>
-      <c r="DO5">
+      <c r="DO7">
         <v>2.15</v>
       </c>
-      <c r="DP5">
+      <c r="DP7">
         <v>1.68</v>
       </c>
-      <c r="DQ5">
+      <c r="DQ7">
         <v>1.18</v>
       </c>
-      <c r="DR5">
+      <c r="DR7">
         <v>4.65</v>
       </c>
-      <c r="DS5">
+      <c r="DS7">
         <v>3</v>
       </c>
-      <c r="DT5">
+      <c r="DT7">
         <v>1.38</v>
       </c>
-      <c r="DU5">
+      <c r="DU7">
         <v>1.06</v>
       </c>
-      <c r="DV5">
+      <c r="DV7">
         <v>7.3</v>
       </c>
-      <c r="DW5">
+      <c r="DW7">
         <v>4.1</v>
       </c>
-      <c r="DX5">
+      <c r="DX7">
         <v>1.23</v>
       </c>
-      <c r="EA5">
+      <c r="EA7">
         <v>6.25</v>
       </c>
-      <c r="EB5">
+      <c r="EB7">
         <v>1.12</v>
       </c>
-      <c r="EE5">
+      <c r="EE7">
         <v>8.300000000000001</v>
       </c>
-      <c r="EF5">
+      <c r="EF7">
         <v>1.04</v>
       </c>
-      <c r="EI5">
+      <c r="EI7">
         <v>13</v>
       </c>
-      <c r="EJ5">
+      <c r="EJ7">
         <v>13</v>
       </c>
-      <c r="EK5">
+      <c r="EK7">
         <v>21</v>
       </c>
-      <c r="EL5">
+      <c r="EL7">
         <v>41</v>
       </c>
-      <c r="EM5">
+      <c r="EM7">
         <v>9</v>
       </c>
-      <c r="EN5">
+      <c r="EN7">
         <v>7</v>
       </c>
-      <c r="EO5">
+      <c r="EO7">
         <v>13</v>
       </c>
-      <c r="EP5">
+      <c r="EP7">
         <v>29</v>
       </c>
-      <c r="EQ5">
+      <c r="EQ7">
         <v>10</v>
       </c>
-      <c r="ER5">
+      <c r="ER7">
         <v>8.5</v>
       </c>
-      <c r="ES5">
+      <c r="ES7">
         <v>13</v>
       </c>
-      <c r="ET5">
+      <c r="ET7">
         <v>34</v>
       </c>
-      <c r="EU5">
+      <c r="EU7">
         <v>17</v>
       </c>
-      <c r="EV5">
+      <c r="EV7">
         <v>15</v>
       </c>
-      <c r="EW5">
+      <c r="EW7">
         <v>21</v>
       </c>
-      <c r="EX5">
+      <c r="EX7">
         <v>41</v>
       </c>
-      <c r="EY5">
+      <c r="EY7">
         <v>81</v>
       </c>
-      <c r="EZ5">
+      <c r="EZ7">
         <v>51</v>
       </c>
-      <c r="FA5">
+      <c r="FA7">
         <v>67</v>
       </c>
-      <c r="FB5">
+      <c r="FB7">
         <v>81</v>
       </c>
-      <c r="FC5">
+      <c r="FC7">
         <v>34</v>
       </c>
-      <c r="FD5">
+      <c r="FD7">
         <v>29</v>
       </c>
-      <c r="FE5">
+      <c r="FE7">
         <v>41</v>
       </c>
-      <c r="FF5">
+      <c r="FF7">
         <v>67</v>
       </c>
-      <c r="FG5">
+      <c r="FG7">
         <v>151</v>
       </c>
     </row>
